--- a/posesiones/1381288.xlsx
+++ b/posesiones/1381288.xlsx
@@ -1958,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>14</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>20</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>33</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>17</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>20</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>18</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>12</v>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>24</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>6</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36">
         <v>12</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>11</v>
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>20</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>6</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>7</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>10</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>10</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>27</v>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R62">
         <v>18</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>15</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>15</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R74">
         <v>17</v>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>18</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5634,7 +5634,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>7</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5737,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>13</v>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>17</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83">
         <v>5</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R86">
         <v>29</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R88">
         <v>11</v>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>26</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R97">
         <v>33</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>19</v>
@@ -6778,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>30</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R110">
         <v>4</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R113">
         <v>6</v>
@@ -7451,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7495,10 +7495,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7548,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R116">
         <v>20</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R121">
         <v>29</v>
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7898,7 +7898,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R123">
         <v>3</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>23</v>
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R127">
         <v>16</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8480,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R135">
         <v>15</v>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R136">
         <v>11</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R138">
         <v>22</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R140">
         <v>8</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R142">
         <v>5</v>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R144">
         <v>16</v>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9274,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R155">
         <v>35</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9612,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R161">
         <v>14</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9856,7 +9856,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R163">
         <v>27</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9959,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R165">
         <v>10</v>
@@ -10012,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10059,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10159,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R169">
         <v>17</v>
@@ -10212,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>16</v>
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10315,7 +10315,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R172">
         <v>10</v>
@@ -10368,7 +10368,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R173">
         <v>18</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10750,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>21</v>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R183">
         <v>6</v>
@@ -10906,7 +10906,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R184">
         <v>15</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11100,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R188">
         <v>24</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11200,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R194">
         <v>34</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R198">
         <v>18</v>
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R202">
         <v>25</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R204">
         <v>5</v>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R206">
         <v>8</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R208">
         <v>6</v>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12185,7 +12185,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R210">
         <v>7</v>
@@ -12238,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R211">
         <v>24</v>
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>15</v>
@@ -12341,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R215">
         <v>12</v>
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R217">
         <v>17</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R218">
         <v>23</v>
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R219">
         <v>14</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R221">
         <v>2</v>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R222">
         <v>2</v>
@@ -12859,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R223">
         <v>7</v>
@@ -12903,10 +12903,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13417,10 +13417,10 @@
         <v>1</v>
       </c>
       <c r="P235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13467,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R238">
         <v>20</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R240">
         <v>9</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R244">
         <v>20</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R246">
         <v>21</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14067,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R248">
         <v>27</v>
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R250">
         <v>6</v>
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R252">
         <v>6</v>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R254">
         <v>6</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14473,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R256">
         <v>19</v>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14573,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R258">
         <v>17</v>
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R260">
         <v>4</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R262">
         <v>7</v>
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14879,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R264">
         <v>20</v>
@@ -14932,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R266">
         <v>8</v>
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R267">
         <v>21</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R275">
         <v>10</v>
@@ -15470,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15570,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R278">
         <v>18</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15673,7 +15673,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R280">
         <v>4</v>
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15767,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15817,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R283">
         <v>21</v>
@@ -15867,7 +15867,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R285">
         <v>8</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16111,7 +16111,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16158,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16255,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R292">
         <v>17</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16449,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R301">
         <v>11</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16843,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R307">
         <v>12</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17181,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17372,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R315">
         <v>0</v>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17663,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>31</v>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R326">
         <v>3</v>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -18007,7 +18007,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R328">
         <v>6</v>
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18201,7 +18201,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R332">
         <v>5</v>
@@ -18254,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18304,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R334">
         <v>21</v>
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18454,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18504,7 +18504,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R338">
         <v>13</v>
@@ -18554,7 +18554,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18601,7 +18601,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18651,7 +18651,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R341">
         <v>28</v>
@@ -18704,7 +18704,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R343">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R345">
         <v>12</v>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18957,7 +18957,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R347">
         <v>4</v>
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19151,7 +19151,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R351">
         <v>0</v>
@@ -19204,7 +19204,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R352">
         <v>20</v>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R354">
         <v>8</v>
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19404,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19736,7 +19736,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R363">
         <v>13</v>
@@ -19789,7 +19789,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R364">
         <v>14</v>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20030,7 +20030,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R369">
         <v>15</v>
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20177,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20271,7 +20271,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20368,7 +20368,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R376">
         <v>14</v>
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20515,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20615,7 +20615,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R381">
         <v>27</v>
@@ -20668,7 +20668,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R382">
         <v>19</v>
@@ -20712,10 +20712,10 @@
         <v>1</v>
       </c>
       <c r="P383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q383">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20756,10 +20756,10 @@
         <v>1</v>
       </c>
       <c r="P384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20900,7 +20900,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R388">
         <v>12</v>
@@ -21003,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R389">
         <v>13</v>
@@ -21056,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R391">
         <v>10</v>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21209,7 +21209,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R393">
         <v>16</v>
@@ -21262,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R394">
         <v>15</v>
@@ -21312,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21362,7 +21362,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R396">
         <v>24</v>
@@ -21415,7 +21415,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21465,7 +21465,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R398">
         <v>16</v>
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R399">
         <v>20</v>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21618,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R401">
         <v>16</v>
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21721,7 +21721,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R403">
         <v>5</v>
@@ -21771,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21818,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21865,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21912,7 +21912,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21962,7 +21962,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R408">
         <v>10</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R410">
         <v>14</v>
@@ -22112,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22162,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R412">
         <v>11</v>
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22306,7 +22306,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22353,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22450,7 +22450,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R418">
         <v>3</v>
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R420">
         <v>17</v>
@@ -22606,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22656,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R422">
         <v>16</v>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23085,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23135,7 +23135,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R432">
         <v>11</v>
@@ -23188,7 +23188,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R433">
         <v>22</v>
@@ -23241,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R434">
         <v>23</v>
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23341,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23388,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23435,7 +23435,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23532,7 +23532,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R440">
         <v>21</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23632,7 +23632,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R442">
         <v>13</v>
@@ -23682,7 +23682,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23732,7 +23732,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R444">
         <v>4</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23826,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23920,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24064,7 +24064,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R451">
         <v>21</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24164,7 +24164,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R453">
         <v>5</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24264,7 +24264,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R455">
         <v>15</v>
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24364,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R457">
         <v>5</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24464,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24514,7 +24514,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R460">
         <v>17</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24614,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24755,7 +24755,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24805,7 +24805,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R466">
         <v>17</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24908,7 +24908,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R468">
         <v>9</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -25011,7 +25011,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R470">
         <v>28</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25114,7 +25114,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R472">
         <v>9</v>
@@ -25164,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25214,7 +25214,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R474">
         <v>12</v>
@@ -25264,7 +25264,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25314,7 +25314,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R476">
         <v>8</v>
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25505,7 +25505,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R480">
         <v>23</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25608,7 +25608,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R482">
         <v>13</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25708,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25896,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25943,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25990,7 +25990,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26087,7 +26087,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R492">
         <v>12</v>
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26184,7 +26184,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26281,7 +26281,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R496">
         <v>12</v>
@@ -26331,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26425,7 +26425,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26475,7 +26475,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R500">
         <v>9</v>
@@ -26525,7 +26525,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26572,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26622,7 +26622,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R503">
         <v>13</v>
@@ -26675,7 +26675,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R504">
         <v>7</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26775,7 +26775,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R506">
         <v>6</v>
@@ -26825,7 +26825,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26872,7 +26872,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -27016,7 +27016,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R511">
         <v>5</v>
@@ -27069,7 +27069,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R512">
         <v>8</v>
@@ -27122,7 +27122,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27216,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27313,7 +27313,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R517">
         <v>8</v>
@@ -27366,7 +27366,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27416,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R519">
         <v>4</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27513,7 +27513,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27554,10 +27554,10 @@
         <v>1</v>
       </c>
       <c r="P522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q522">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27598,7 +27598,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
